--- a/subtitles.xlsx
+++ b/subtitles.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LocalizationPack_Comics" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LocalizationPack_Menu" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LocalizationPack_Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Package name</t>
   </si>
@@ -44,47 +45,43 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>Здраствуйте</t>
-  </si>
-  <si>
-    <t>Prop_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы как?
-Не ушиблись?</t>
-  </si>
-  <si>
-    <t>Subtitles_S1Prologue_Part2</t>
-  </si>
-  <si>
-    <t>Bye</t>
-  </si>
-  <si>
-    <t>Досвиданья</t>
-  </si>
-  <si>
-    <t>Subtitles_MainMenu</t>
-  </si>
-  <si>
-    <t>Button_Start</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Старт</t>
-  </si>
-  <si>
-    <t>Button_Quit</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>Выход</t>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>Subtitles_Timer</t>
+  </si>
+  <si>
+    <t>Ноль</t>
+  </si>
+  <si>
+    <t>Один</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Два </t>
+  </si>
+  <si>
+    <t>Три</t>
+  </si>
+  <si>
+    <t>Четыре</t>
+  </si>
+  <si>
+    <t>Пять</t>
+  </si>
+  <si>
+    <t>Шесть</t>
+  </si>
+  <si>
+    <t>Семь</t>
+  </si>
+  <si>
+    <t>Восемь</t>
+  </si>
+  <si>
+    <t>Девять</t>
+  </si>
+  <si>
+    <t>Десять</t>
   </si>
 </sst>
 </file>
@@ -119,14 +116,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +636,7 @@
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -656,11 +649,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="27.00390625"/>
-    <col customWidth="1" min="4" max="4" width="18.875"/>
-    <col customWidth="1" min="5" max="5" width="14.00390625"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -696,49 +684,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="33">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -751,8 +700,42 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.25390625"/>
+    <col customWidth="1" min="1" max="1" width="33.00390625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -773,34 +756,133 @@
       </c>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="16.5">
-      <c r="B4" t="s">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>